--- a/api文档.xlsx
+++ b/api文档.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Fork\CourseManageWebsite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3919686E-F075-4EF2-BC97-1B4E11480963}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D658200-71D0-4518-A673-9BF6C70CAE19}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1860" yWindow="1620" windowWidth="16944" windowHeight="10584" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3900" yWindow="1188" windowWidth="16956" windowHeight="10596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="87">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -474,10 +474,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>上传作业</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/course/assignHomework</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -496,6 +492,68 @@
   </si>
   <si>
     <t>&lt;input type="datetime-local" name="ddl"&gt;可以获取时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上传作业（老师端）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上传作业（学生端）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/course/submitHomework</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下载资源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/course/downloadResource</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>path</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不返回信息，故不能保证是否下载成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>file,homeworkID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>401未登录账户
+402file未提供
+403homeworkID未提供
+404上传文件失败
+405数据库存储信息失败
+200查询成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端代码要求（enctype、method和name是固定写法）：
+&lt;form action="/course/uploadResource" method="post"  enctype="multipart/form-data"&gt;
+    &lt;input type="file" name="file"&gt;
+    &lt;input type="text" name="homeworkID"&gt;
+    &lt;input type="submit"&gt;
+&lt;/form&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -824,26 +882,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" topLeftCell="C14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.375" customWidth="1"/>
-    <col min="2" max="2" width="30.375" customWidth="1"/>
-    <col min="3" max="3" width="24.375" customWidth="1"/>
-    <col min="4" max="4" width="8.25" customWidth="1"/>
-    <col min="5" max="5" width="8.125" customWidth="1"/>
+    <col min="1" max="1" width="4.33203125" customWidth="1"/>
+    <col min="2" max="2" width="30.33203125" customWidth="1"/>
+    <col min="3" max="3" width="24.33203125" customWidth="1"/>
+    <col min="4" max="4" width="8.21875" customWidth="1"/>
+    <col min="5" max="5" width="8.109375" customWidth="1"/>
     <col min="6" max="6" width="26" customWidth="1"/>
-    <col min="7" max="7" width="26.875" customWidth="1"/>
+    <col min="7" max="7" width="26.88671875" customWidth="1"/>
     <col min="8" max="8" width="39" customWidth="1"/>
-    <col min="9" max="9" width="34.875" customWidth="1"/>
+    <col min="9" max="9" width="34.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -872,7 +930,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -898,7 +956,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="69" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -924,7 +982,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="171" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="165.6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -950,7 +1008,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="256.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="248.4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -976,7 +1034,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="256.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="248.4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1002,7 +1060,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="285" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="276" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1028,7 +1086,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="242.25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="234.6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1054,7 +1112,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="242.25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="234.6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1080,7 +1138,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="242.25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="234.6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1106,7 +1164,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="228" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" ht="220.8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1132,7 +1190,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="128.25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1161,7 +1219,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="99.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" ht="96.6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1187,7 +1245,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="57" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1213,15 +1271,15 @@
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="85.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
+        <v>74</v>
+      </c>
+      <c r="C15" t="s">
         <v>70</v>
-      </c>
-      <c r="C15" t="s">
-        <v>71</v>
       </c>
       <c r="D15" t="s">
         <v>7</v>
@@ -1230,16 +1288,71 @@
         <v>8</v>
       </c>
       <c r="F15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>58</v>
       </c>
       <c r="H15" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I15" t="s">
         <v>73</v>
       </c>
-      <c r="I15" t="s">
-        <v>74</v>
+    </row>
+    <row r="16" spans="1:9" ht="151.80000000000001" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" t="s">
+        <v>76</v>
+      </c>
+      <c r="D16" t="s">
+        <v>77</v>
+      </c>
+      <c r="E16" t="s">
+        <v>78</v>
+      </c>
+      <c r="F16" t="s">
+        <v>84</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>79</v>
+      </c>
+      <c r="C17" t="s">
+        <v>80</v>
+      </c>
+      <c r="D17" t="s">
+        <v>77</v>
+      </c>
+      <c r="E17" t="s">
+        <v>78</v>
+      </c>
+      <c r="F17" t="s">
+        <v>81</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/api文档.xlsx
+++ b/api文档.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Fork\CourseManageWebsite\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/454d2e4eaf54b5fc/桌面/VUE/CourseManageWebsite/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D658200-71D0-4518-A673-9BF6C70CAE19}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="1188" windowWidth="16956" windowHeight="10596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -884,8 +884,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="C13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/api文档.xlsx
+++ b/api文档.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D658200-71D0-4518-A673-9BF6C70CAE19}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -884,24 +884,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.33203125" customWidth="1"/>
-    <col min="2" max="2" width="30.33203125" customWidth="1"/>
-    <col min="3" max="3" width="24.33203125" customWidth="1"/>
-    <col min="4" max="4" width="8.21875" customWidth="1"/>
-    <col min="5" max="5" width="8.109375" customWidth="1"/>
+    <col min="1" max="1" width="4.375" customWidth="1"/>
+    <col min="2" max="2" width="30.375" customWidth="1"/>
+    <col min="3" max="3" width="24.375" customWidth="1"/>
+    <col min="4" max="4" width="8.25" customWidth="1"/>
+    <col min="5" max="5" width="8.125" customWidth="1"/>
     <col min="6" max="6" width="26" customWidth="1"/>
-    <col min="7" max="7" width="26.88671875" customWidth="1"/>
+    <col min="7" max="7" width="26.875" customWidth="1"/>
     <col min="8" max="8" width="39" customWidth="1"/>
-    <col min="9" max="9" width="34.88671875" customWidth="1"/>
+    <col min="9" max="9" width="34.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -930,7 +930,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -956,7 +956,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="69" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -982,7 +982,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="165.6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="171" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1008,7 +1008,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="248.4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="256.5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1034,7 +1034,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="248.4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="256.5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1060,7 +1060,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="276" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="285" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1086,7 +1086,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="234.6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="242.25" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1112,7 +1112,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="234.6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="242.25" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1138,7 +1138,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="234.6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="242.25" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1164,7 +1164,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="220.8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="228" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1190,7 +1190,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="151.80000000000001" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="128.25" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1219,7 +1219,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="96.6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1245,7 +1245,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="57" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1271,7 +1271,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1300,7 +1300,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="151.80000000000001" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="142.5" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1329,7 +1329,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>

--- a/api文档.xlsx
+++ b/api文档.xlsx
@@ -884,8 +884,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/api文档.xlsx
+++ b/api文档.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/454d2e4eaf54b5fc/桌面/VUE/CourseManageWebsite/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Fork\CourseManageWebsite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D658200-71D0-4518-A673-9BF6C70CAE19}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C8CF36A-AAE3-4313-94FC-8A5EAD99E27D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3900" yWindow="1188" windowWidth="16956" windowHeight="10596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -198,6 +198,344 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>401未登录无法查询
+200查询个人所有课程成功，并返回数组（数组可能为空）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取某课程的所有作业列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/course/homeworkList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>courseID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>401未登录账户
+402courseID未提供
+200查询成功，并返回数组（数组可能为空）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/course/homeworkDetail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>homeworkID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+       code:401,
+       msg:'login required'
+}
+或者
+{
+    code:200,
+    homeworkDetail:{
+        ID:1,
+        courseID:1,
+        title:"",
+        userID:"",
+        ddl:"2020-12-03T07:50:41.000Z",
+        context:""
+    }
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>401未登录账户
+402homeworkID未提供
+200查询成功，并返回具体作业信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取某课程的所有资源列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/course/resourceList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取某作业的公告具体详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/course/announcementDetail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>announcementID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取某课程的所有公告列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/course/announcementList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取某作业的具体详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+       code:401,
+       msg:'login required'
+}
+或者
+{
+    code:200, 
+    homeworkList:[{
+        ID:"",
+        courseID:"",
+        fileUrl:"",
+        fileName:"",
+        uploadTime:"2020-12-03T07:50:41.000Z",
+    },….]
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+       code:401,
+       msg:'login required'
+}
+或者
+{
+    code:200, 
+    announcementList:[{
+        ID:"",
+        courseID:"",
+        context:"",
+        title:"",
+        announceTime:"2020-12-03T07:50:41.000Z",
+        viewTimes:0
+    },….]
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+       code:401,
+       msg:'login required'
+}
+或者
+{
+    code:200, 
+    announcementLDetail:{
+        ID:"",
+        courseID:"",
+        context:"",
+        title:"",
+        announceTime:"2020-12-03T07:50:41.000Z",
+        viewTimes:0
+    }
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>401未登录账户
+402announcementID未提供
+201查询成功，并返回具体公告信息，但是浏览量内容更新失败
+200查询成功，并返回具体公告信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上传课程资源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/course/uploadResource</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>courseID、file</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+       code:401,
+       msg:'login required'
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>401未登录账户
+402file未提供
+403courseID未提供
+404上传文件失败
+405数据库存储信息失败
+200查询成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端代码要求（enctype、method和name是固定写法）：
+&lt;form action="/course/uploadResource" method="post"  enctype="multipart/form-data"&gt;
+    &lt;input type="file" name="file"&gt;
+    &lt;input type="text" name="courseID"&gt;
+    &lt;input type="submit"&gt;
+&lt;/form&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建课程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/course/createCourse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>401未登录账户
+402courseID未提供
+403context 未提供
+404title未提供</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发布公告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/course/publishAnnouncement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>courseID、context、title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>401未登录账户
+402cname未提供
+403image未提供
+404上传文件失败
+405数据库插入失败
+406更新数据库失败
+200创建成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cname、cImgUrl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/course/assignHomework</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>courseID、context、ddl、title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>401未登录账户
+402courseID未提供
+403title未提供
+404context未提供
+405ddl未提供
+200创建成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;input type="datetime-local" name="ddl"&gt;可以获取时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上传作业（老师端）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上传作业（学生端）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/course/submitHomework</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下载资源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/course/downloadResource</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>path</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不返回信息，故不能保证是否下载成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>file,homeworkID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>401未登录账户
+402file未提供
+403homeworkID未提供
+404上传文件失败
+405数据库存储信息失败
+200查询成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端代码要求（enctype、method和name是固定写法）：
+&lt;form action="/course/uploadResource" method="post"  enctype="multipart/form-data"&gt;
+    &lt;input type="file" name="file"&gt;
+    &lt;input type="text" name="homeworkID"&gt;
+    &lt;input type="submit"&gt;
+&lt;/form&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+       code:401,
+       msg:'login required'
+}
+或者
+{
+    code:200, 
+    allCourse:[{
+        ID:"",
+        courseID:"",
+        userEmail:"",
+        homeworkID:"",
+        status:"未完成",
+        finishTime:null,
+        homeworkTitle:"",
+        ddl:"2020-12-03T07:50:41.000Z",
+        teaName:""
+    },….],
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>{
        code:401,
        msg:'login required'
@@ -214,346 +552,10 @@
         cImgUrl:"",
         creator:""
     },
-    ...]
+    ...],
+    joinCourse:[],
+    createCourse:[]
 }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>401未登录无法查询
-200查询个人所有课程成功，并返回数组（数组可能为空）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取某课程的所有作业列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/course/homeworkList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>courseID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>401未登录账户
-402courseID未提供
-200查询成功，并返回数组（数组可能为空）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-       code:401,
-       msg:'login required'
-}
-或者
-{
-    code:200, 
-    homeworkList:[{
-        ID:"",
-        courseID:"",
-        userEmail:"",
-        homeworkID:"",
-        status:"未完成",
-        finishTime:null,
-        homeworkTitle:"",
-        ddl:"2020-12-03T07:50:41.000Z",
-        teaName:""
-    },….]
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/course/homeworkDetail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>homeworkID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-       code:401,
-       msg:'login required'
-}
-或者
-{
-    code:200,
-    homeworkDetail:{
-        ID:1,
-        courseID:1,
-        title:"",
-        userID:"",
-        ddl:"2020-12-03T07:50:41.000Z",
-        context:""
-    }
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>401未登录账户
-402homeworkID未提供
-200查询成功，并返回具体作业信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取某课程的所有资源列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/course/resourceList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取某作业的公告具体详情</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/course/announcementDetail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>announcementID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取某课程的所有公告列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/course/announcementList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取某作业的具体详情</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-       code:401,
-       msg:'login required'
-}
-或者
-{
-    code:200, 
-    homeworkList:[{
-        ID:"",
-        courseID:"",
-        fileUrl:"",
-        fileName:"",
-        uploadTime:"2020-12-03T07:50:41.000Z",
-    },….]
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-       code:401,
-       msg:'login required'
-}
-或者
-{
-    code:200, 
-    announcementList:[{
-        ID:"",
-        courseID:"",
-        context:"",
-        title:"",
-        announceTime:"2020-12-03T07:50:41.000Z",
-        viewTimes:0
-    },….]
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-       code:401,
-       msg:'login required'
-}
-或者
-{
-    code:200, 
-    announcementLDetail:{
-        ID:"",
-        courseID:"",
-        context:"",
-        title:"",
-        announceTime:"2020-12-03T07:50:41.000Z",
-        viewTimes:0
-    }
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>401未登录账户
-402announcementID未提供
-201查询成功，并返回具体公告信息，但是浏览量内容更新失败
-200查询成功，并返回具体公告信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上传课程资源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/course/uploadResource</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>courseID、file</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-       code:401,
-       msg:'login required'
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>401未登录账户
-402file未提供
-403courseID未提供
-404上传文件失败
-405数据库存储信息失败
-200查询成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>前端代码要求（enctype、method和name是固定写法）：
-&lt;form action="/course/uploadResource" method="post"  enctype="multipart/form-data"&gt;
-    &lt;input type="file" name="file"&gt;
-    &lt;input type="text" name="courseID"&gt;
-    &lt;input type="submit"&gt;
-&lt;/form&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建课程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/course/createCourse</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>401未登录账户
-402courseID未提供
-403context 未提供
-404title未提供</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发布公告</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/course/publishAnnouncement</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>courseID、context、title</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>401未登录账户
-402cname未提供
-403image未提供
-404上传文件失败
-405数据库插入失败
-406更新数据库失败
-200创建成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cname、cImgUrl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/course/assignHomework</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>courseID、context、ddl、title</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>401未登录账户
-402courseID未提供
-403title未提供
-404context未提供
-405ddl未提供
-200创建成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;input type="datetime-local" name="ddl"&gt;可以获取时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上传作业（老师端）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上传作业（学生端）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/course/submitHomework</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>post</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下载资源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/course/downloadResource</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>path</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不返回信息，故不能保证是否下载成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>file,homeworkID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>401未登录账户
-402file未提供
-403homeworkID未提供
-404上传文件失败
-405数据库存储信息失败
-200查询成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>前端代码要求（enctype、method和name是固定写法）：
-&lt;form action="/course/uploadResource" method="post"  enctype="multipart/form-data"&gt;
-    &lt;input type="file" name="file"&gt;
-    &lt;input type="text" name="homeworkID"&gt;
-    &lt;input type="submit"&gt;
-&lt;/form&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -884,24 +886,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="C6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.375" customWidth="1"/>
-    <col min="2" max="2" width="30.375" customWidth="1"/>
-    <col min="3" max="3" width="24.375" customWidth="1"/>
-    <col min="4" max="4" width="8.25" customWidth="1"/>
-    <col min="5" max="5" width="8.125" customWidth="1"/>
+    <col min="1" max="1" width="4.33203125" customWidth="1"/>
+    <col min="2" max="2" width="30.33203125" customWidth="1"/>
+    <col min="3" max="3" width="24.33203125" customWidth="1"/>
+    <col min="4" max="4" width="8.21875" customWidth="1"/>
+    <col min="5" max="5" width="8.109375" customWidth="1"/>
     <col min="6" max="6" width="26" customWidth="1"/>
-    <col min="7" max="7" width="26.875" customWidth="1"/>
+    <col min="7" max="7" width="26.88671875" customWidth="1"/>
     <col min="8" max="8" width="39" customWidth="1"/>
-    <col min="9" max="9" width="34.875" customWidth="1"/>
+    <col min="9" max="9" width="34.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -927,10 +929,10 @@
         <v>5</v>
       </c>
       <c r="I1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -956,7 +958,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="69" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -982,7 +984,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="171" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="165.6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1008,7 +1010,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="256.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="248.4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1034,7 +1036,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="256.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="276" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1054,21 +1056,21 @@
         <v>17</v>
       </c>
       <c r="G6" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="285" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:9" ht="276" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" t="s">
         <v>34</v>
-      </c>
-      <c r="C7" t="s">
-        <v>35</v>
       </c>
       <c r="D7" t="s">
         <v>7</v>
@@ -1077,24 +1079,24 @@
         <v>16</v>
       </c>
       <c r="F7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H7" s="1" t="s">
+    </row>
+    <row r="8" spans="1:9" ht="234.6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="242.25" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8" t="s">
-        <v>39</v>
       </c>
       <c r="D8" t="s">
         <v>7</v>
@@ -1103,24 +1105,24 @@
         <v>16</v>
       </c>
       <c r="F8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="242.25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:9" ht="234.6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D9" t="s">
         <v>7</v>
@@ -1129,24 +1131,24 @@
         <v>16</v>
       </c>
       <c r="F9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="242.25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:9" ht="234.6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D10" t="s">
         <v>7</v>
@@ -1155,24 +1157,24 @@
         <v>16</v>
       </c>
       <c r="F10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="228" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="220.8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D11" t="s">
         <v>7</v>
@@ -1181,24 +1183,24 @@
         <v>16</v>
       </c>
       <c r="F11" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="128.25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:9" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D12" t="s">
         <v>7</v>
@@ -1207,27 +1209,27 @@
         <v>8</v>
       </c>
       <c r="F12" t="s">
+        <v>55</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H12" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="G12" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H12" s="1" t="s">
+      <c r="I12" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="I12" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="99.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:9" ht="96.6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C13" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D13" t="s">
         <v>7</v>
@@ -1236,24 +1238,24 @@
         <v>8</v>
       </c>
       <c r="F13" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="57" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C14" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D14" t="s">
         <v>7</v>
@@ -1262,24 +1264,24 @@
         <v>8</v>
       </c>
       <c r="F14" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="85.5" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D15" t="s">
         <v>7</v>
@@ -1288,71 +1290,71 @@
         <v>8</v>
       </c>
       <c r="F15" t="s">
+        <v>69</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I15" t="s">
         <v>71</v>
       </c>
-      <c r="G15" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="I15" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="142.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:9" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" t="s">
+        <v>74</v>
+      </c>
+      <c r="D16" t="s">
         <v>75</v>
       </c>
-      <c r="C16" t="s">
+      <c r="E16" t="s">
         <v>76</v>
       </c>
-      <c r="D16" t="s">
-        <v>77</v>
-      </c>
-      <c r="E16" t="s">
-        <v>78</v>
-      </c>
       <c r="F16" t="s">
+        <v>82</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="I16" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="G16" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" t="s">
+        <v>78</v>
+      </c>
+      <c r="D17" t="s">
+        <v>75</v>
+      </c>
+      <c r="E17" t="s">
+        <v>76</v>
+      </c>
+      <c r="F17" t="s">
         <v>79</v>
       </c>
-      <c r="C17" t="s">
+      <c r="G17" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D17" t="s">
-        <v>77</v>
-      </c>
-      <c r="E17" t="s">
-        <v>78</v>
-      </c>
-      <c r="F17" t="s">
+      <c r="H17" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/api文档.xlsx
+++ b/api文档.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/454d2e4eaf54b5fc/桌面/VUE/CourseManageWebsite/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D658200-71D0-4518-A673-9BF6C70CAE19}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{5D658200-71D0-4518-A673-9BF6C70CAE19}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{436F8EA1-D152-44D2-AF0A-582EBDD63E8A}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -597,10 +597,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -884,474 +887,473 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.375" customWidth="1"/>
-    <col min="2" max="2" width="30.375" customWidth="1"/>
-    <col min="3" max="3" width="24.375" customWidth="1"/>
-    <col min="4" max="4" width="8.25" customWidth="1"/>
-    <col min="5" max="5" width="8.125" customWidth="1"/>
-    <col min="6" max="6" width="26" customWidth="1"/>
-    <col min="7" max="7" width="26.875" customWidth="1"/>
-    <col min="8" max="8" width="39" customWidth="1"/>
-    <col min="9" max="9" width="34.875" customWidth="1"/>
+    <col min="1" max="1" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="49" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="46.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="58.33203125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2">
+    <row r="2" spans="1:9" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A3">
+    <row r="3" spans="1:9" ht="69" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="D3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="171" x14ac:dyDescent="0.2">
-      <c r="A4">
+    <row r="4" spans="1:9" ht="165.6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="D4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="256.5" x14ac:dyDescent="0.2">
-      <c r="A5">
+    <row r="5" spans="1:9" ht="234.6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="D5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="256.5" x14ac:dyDescent="0.2">
-      <c r="A6">
+    <row r="6" spans="1:9" ht="248.4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="D6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="285" x14ac:dyDescent="0.2">
-      <c r="A7">
+    <row r="7" spans="1:9" ht="262.2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="D7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="242.25" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
+    <row r="8" spans="1:9" ht="220.8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="D8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="H8" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="242.25" x14ac:dyDescent="0.2">
-      <c r="A9">
+    <row r="9" spans="1:9" ht="220.8" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="D9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="H9" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="242.25" x14ac:dyDescent="0.2">
-      <c r="A10">
+    <row r="10" spans="1:9" ht="220.8" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="D10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G10" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="H10" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="228" x14ac:dyDescent="0.2">
-      <c r="A11">
+    <row r="11" spans="1:9" ht="207" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="D11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G11" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="H11" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="128.25" x14ac:dyDescent="0.2">
-      <c r="A12">
+    <row r="12" spans="1:9" ht="96.6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="D12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G12" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="H12" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="I12" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="99.75" x14ac:dyDescent="0.2">
-      <c r="A13">
+    <row r="13" spans="1:9" ht="96.6" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D13" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="D13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G13" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="H13" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="57" x14ac:dyDescent="0.2">
-      <c r="A14">
+    <row r="14" spans="1:9" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" t="s">
+      <c r="D14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="G14" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="H14" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A15">
+    <row r="15" spans="1:9" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D15" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" t="s">
+      <c r="D15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="G15" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="H15" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="I15" t="s">
+      <c r="I15" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="142.5" x14ac:dyDescent="0.2">
-      <c r="A16">
+    <row r="16" spans="1:9" ht="96.6" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="G16" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="H16" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="I16" s="1" t="s">
+      <c r="I16" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="G17" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="H17" s="2" t="s">
         <v>83</v>
       </c>
     </row>

--- a/api文档.xlsx
+++ b/api文档.xlsx
@@ -886,8 +886,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/api文档.xlsx
+++ b/api文档.xlsx
@@ -886,8 +886,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/api文档.xlsx
+++ b/api文档.xlsx
@@ -886,8 +886,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/api文档.xlsx
+++ b/api文档.xlsx
@@ -886,8 +886,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:H5"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/api文档.xlsx
+++ b/api文档.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/454d2e4eaf54b5fc/桌面/VUE/CourseManageWebsite/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="6_{9FF2D90A-37AD-4AEC-B819-C0A4CFED8EC3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{9D8FFF15-F70F-459F-AEF6-048832591B2A}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="6_{9FF2D90A-37AD-4AEC-B819-C0A4CFED8EC3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{4251D3A7-BB20-4F22-A8B8-134CDB2DE9A8}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -887,7 +887,7 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -897,7 +897,7 @@
     <col min="3" max="3" width="33.33203125" customWidth="1"/>
     <col min="4" max="4" width="8.21875" customWidth="1"/>
     <col min="5" max="5" width="8.109375" customWidth="1"/>
-    <col min="6" max="6" width="26" customWidth="1"/>
+    <col min="6" max="6" width="54" customWidth="1"/>
     <col min="7" max="7" width="26.88671875" customWidth="1"/>
     <col min="8" max="8" width="39" customWidth="1"/>
     <col min="9" max="9" width="34.88671875" customWidth="1"/>

--- a/api文档.xlsx
+++ b/api文档.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/454d2e4eaf54b5fc/桌面/VUE/CourseManageWebsite/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Fork\CourseManageWebsite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="6_{9FF2D90A-37AD-4AEC-B819-C0A4CFED8EC3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{4251D3A7-BB20-4F22-A8B8-134CDB2DE9A8}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17E5953D-CF7F-4BBD-BF7D-7915CC40F32B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3900" yWindow="1188" windowWidth="16956" windowHeight="10596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="94">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -556,6 +556,45 @@
     joinCourse:[],
     createCourse:[]
 }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/course/myOrderHomeworkList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取时间轴的所有作业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+       code:401,
+       msg:'login required'
+}
+或者
+{
+    code:200, 
+   allHomeworkList:[.],
+   unfinishList:[],
+   doneList:[]
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>401未登录
+200返回三类数组，一个是全部作业，一个是未完成作业，一个是已完成作业</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -884,10 +923,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="D17" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1357,6 +1396,32 @@
         <v>81</v>
       </c>
     </row>
+    <row r="18" spans="1:8" ht="151.80000000000001" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>88</v>
+      </c>
+      <c r="C18" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18" t="s">
+        <v>89</v>
+      </c>
+      <c r="E18" t="s">
+        <v>90</v>
+      </c>
+      <c r="F18" t="s">
+        <v>91</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
